--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -73,6 +73,30 @@
   </si>
   <si>
     <t xml:space="preserve">ASZALTFOGLALÁS ha név kitlöltendő billentyűzettel, akkor hogy fogjuk az érintőssel kitölteni? </t>
+  </si>
+  <si>
+    <t>Partner kód generálása automatikusan</t>
+  </si>
+  <si>
+    <t>Rendszerparaméterek átdolgozása</t>
+  </si>
+  <si>
+    <t>Nyitó tartozások rögzíthetősége</t>
+  </si>
+  <si>
+    <t>Tesztüzem és korlátozások</t>
+  </si>
+  <si>
+    <t>Jogosultságok kezelése</t>
+  </si>
+  <si>
+    <t>Partnerre rendelést felvinni</t>
+  </si>
+  <si>
+    <t>Cikkszám automatikusan generálható legyen</t>
+  </si>
+  <si>
+    <t>Asztal infó hiányzik még.</t>
   </si>
 </sst>
 </file>
@@ -405,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,6 +530,46 @@
     <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Munka2" sheetId="2" r:id="rId2"/>
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$28</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -97,6 +100,9 @@
   </si>
   <si>
     <t>Asztal infó hiányzik még.</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -429,150 +435,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B21" sqref="B21:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" hidden="1">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" hidden="1">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" hidden="1">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" hidden="1">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" hidden="1">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" hidden="1">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" hidden="1">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" hidden="1">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" hidden="1">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" hidden="1">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" hidden="1">
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" hidden="1">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" hidden="1">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" hidden="1">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" hidden="1">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" hidden="1">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" hidden="1">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" hidden="1">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" hidden="1">
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" hidden="1">
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" hidden="1">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" hidden="1">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" hidden="1">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B28">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Cikk csoportok görgősávja lefele mehet végtelenbe</t>
+  </si>
+  <si>
+    <t>Cikk törlése egyből történik, sztem rákérdezhetne hogy biztosan törölni kívánja az adott terméket? Magamból kiidulva véletlenül is sikerülhet a törlésre nyomni :D</t>
+  </si>
+  <si>
+    <t>sikeres belépés ha hibás a jelszó- hibás jelszó kell oda</t>
   </si>
 </sst>
 </file>
@@ -435,21 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -462,82 +470,82 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -550,7 +558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -563,12 +571,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -581,23 +589,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B28">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="0"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -128,12 +128,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -446,24 +453,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
@@ -471,11 +484,17 @@
       </c>
     </row>
     <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -546,12 +565,15 @@
       </c>
     </row>
     <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
@@ -564,7 +586,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B23" t="s">
@@ -582,7 +604,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -454,7 +454,7 @@
   <dimension ref="A2:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,6 +540,9 @@
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$28</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>sikeres belépés ha hibás a jelszó- hibás jelszó kell oda</t>
+  </si>
+  <si>
+    <t>Egyedi cikk eladása, összetevők keresése</t>
   </si>
 </sst>
 </file>
@@ -451,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,6 +641,11 @@
     <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$33</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>Egyedi cikk eladása, összetevők keresése</t>
+  </si>
+  <si>
+    <t>Asztalok menü bekerült a Törzsek menübe.</t>
   </si>
 </sst>
 </file>
@@ -455,15 +458,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B32"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -471,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" hidden="1">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -479,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -487,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" hidden="1">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -495,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -528,12 +532,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" hidden="1">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" hidden="1">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -543,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" hidden="1">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -557,6 +567,9 @@
       </c>
     </row>
     <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -566,12 +579,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" hidden="1">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -579,7 +595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -592,7 +608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" hidden="1">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -610,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -628,12 +644,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" hidden="1">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -648,9 +670,19 @@
         <v>31</v>
       </c>
     </row>
+    <row r="33" spans="1:2" hidden="1">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B28">
-    <filterColumn colId="0"/>
+  <autoFilter ref="A1:B33">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,15 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$36</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -119,6 +118,21 @@
   </si>
   <si>
     <t>Asztalok menü bekerült a Törzsek menübe.</t>
+  </si>
+  <si>
+    <t>Asztal foglalásnál írja ki  az infot….</t>
+  </si>
+  <si>
+    <t>Raktárkészlet kimutatása összetett cikknél hibás ha még sose volt készlete egyes termékeknek.</t>
+  </si>
+  <si>
+    <t>Készletkarton továbbfejlesztése, szűrők, összegzők</t>
+  </si>
+  <si>
+    <t>Megrendelés átforgatása bevételezéssé majd annak folytatása…</t>
+  </si>
+  <si>
+    <t>Tesztüzem felirat a blokkon</t>
   </si>
 </sst>
 </file>
@@ -459,10 +473,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,11 +537,17 @@
       </c>
     </row>
     <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" hidden="1">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -566,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" hidden="1">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -639,7 +659,10 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" hidden="1">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -652,7 +675,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -678,8 +701,36 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B33">
+  <autoFilter ref="A1:B36">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Tesztüzem felirat a blokkon</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>About boksz készítése</t>
   </si>
 </sst>
 </file>
@@ -473,10 +479,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B38"/>
+  <dimension ref="A2:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -536,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" hidden="1">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -683,7 +689,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" hidden="1">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -719,18 +728,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" hidden="1">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" hidden="1">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B36">
+  <autoFilter ref="A1:B38">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$39</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -164,7 +164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,13 +482,13 @@
   <dimension ref="A2:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:2" hidden="1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B3" t="s">
@@ -512,7 +512,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" hidden="1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
@@ -520,7 +520,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -543,7 +543,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" hidden="1">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
@@ -551,7 +551,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" hidden="1">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
@@ -559,7 +559,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" hidden="1">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12" t="s">
@@ -567,7 +567,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" hidden="1">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
@@ -580,7 +580,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" hidden="1">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
@@ -593,7 +593,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" hidden="1">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
@@ -606,7 +606,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" hidden="1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
@@ -614,7 +614,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" hidden="1">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
@@ -666,7 +666,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" hidden="1">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -674,7 +674,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" hidden="1">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -682,7 +682,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" hidden="1">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
@@ -690,7 +690,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" hidden="1">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B31" t="s">
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" hidden="1">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B33" t="s">
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" hidden="1">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B35" t="s">
@@ -729,7 +729,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" hidden="1">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
@@ -737,7 +737,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" hidden="1">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B38" t="s">
@@ -750,7 +750,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B38">
+  <autoFilter ref="A1:B39">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>About boksz készítése</t>
+  </si>
+  <si>
+    <t>Egyedi cikk rögzítése design javítása</t>
+  </si>
+  <si>
+    <t>Egyedi cikkeknél a mennyiség kézi módosítása</t>
+  </si>
+  <si>
+    <t>Egyedi cikk után a készletek frissítése hibás 1-el többet mutat</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B39"/>
+  <dimension ref="A2:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,7 +706,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" hidden="1">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -749,8 +761,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B39">
+  <autoFilter ref="A1:B40">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -491,7 +491,7 @@
   <dimension ref="A2:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,6 +723,9 @@
       </c>
     </row>
     <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$42</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Egyedi cikk után a készletek frissítése hibás 1-el többet mutat</t>
+  </si>
+  <si>
+    <t>Egyedi cikket nem vonja készletről</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B42"/>
+  <dimension ref="A2:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,7 +641,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" hidden="1">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -722,7 +728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -770,17 +776,31 @@
       </c>
     </row>
     <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B40">
+  <autoFilter ref="A1:B42">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$50</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>Egyedi cikket nem vonja készletről</t>
+  </si>
+  <si>
+    <t>Blokk logójának választhatósága</t>
+  </si>
+  <si>
+    <t>Megrendeléseknél ha már a cikk hozzá volt kapcsolva nem engedi újra hozzátenni.</t>
+  </si>
+  <si>
+    <t>Minimum készletre feltöltés a rendelés generálásnál</t>
+  </si>
+  <si>
+    <t>Cikk törzsben új mező a minimum rendelhető mennyiségnek. (Cikk szállítónál)</t>
+  </si>
+  <si>
+    <t>Optimális készletre való feltöltés automatikus generálása</t>
+  </si>
+  <si>
+    <t>Nem enged megrendelést rögzíteni ha van még 0-s sor</t>
+  </si>
+  <si>
+    <t>Rendelési egység figyelembe vétele a megrendelés során</t>
+  </si>
+  <si>
+    <t>Bevételezés megrendelésből felülvizsgálata</t>
+  </si>
+  <si>
+    <t>About boxban verziószám és adatbázis verzió kijrása</t>
   </si>
 </sst>
 </file>
@@ -491,10 +518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,7 +802,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -783,7 +810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" t="s">
         <v>27</v>
       </c>
@@ -791,7 +818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -799,8 +826,74 @@
         <v>43</v>
       </c>
     </row>
+    <row r="44" spans="1:2" hidden="1">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B42">
+  <autoFilter ref="A1:B50">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$57</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>About boxban verziószám és adatbázis verzió kijrása</t>
+  </si>
+  <si>
+    <t>Megrednelés összesen kiírása a beszerzési ár alapján</t>
+  </si>
+  <si>
+    <t>Telepítő készítése</t>
+  </si>
+  <si>
+    <t>Felhasználói kézikönyv</t>
+  </si>
+  <si>
+    <t>Riportok kimutatások bővítése</t>
+  </si>
+  <si>
+    <t>PDA alkalmazás befejezése</t>
+  </si>
+  <si>
+    <t>Fizetési mód rányomtatása a blokkra</t>
+  </si>
+  <si>
+    <t>Megrendelés E-mail generálás</t>
+  </si>
+  <si>
+    <t>Hírlevél funkció</t>
   </si>
 </sst>
 </file>
@@ -518,10 +542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B52"/>
+  <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B60" sqref="A59:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -882,7 +906,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
@@ -892,8 +919,51 @@
         <v>52</v>
       </c>
     </row>
+    <row r="53" spans="1:2" hidden="1">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B50">
+  <autoFilter ref="A1:B57">
     <filterColumn colId="0">
       <filters blank="1"/>
     </filterColumn>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Munka3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$B$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$C$60</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Bevételezés megrendelésből felülvizsgálata</t>
   </si>
   <si>
-    <t>About boxban verziószám és adatbázis verzió kijrása</t>
-  </si>
-  <si>
     <t>Megrednelés összesen kiírása a beszerzési ár alapján</t>
   </si>
   <si>
@@ -202,13 +199,22 @@
   </si>
   <si>
     <t>Hírlevél funkció</t>
+  </si>
+  <si>
+    <t>About boxban verziószám és adatbázis verzió kiírása</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>elküldve</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +223,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,9 +263,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -542,433 +563,558 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B60" sqref="A59:B60"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1">
+    <row r="5" spans="1:3" hidden="1">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1">
+    <row r="6" spans="1:3" hidden="1">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1">
+    <row r="10" spans="1:3" hidden="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:3" hidden="1">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1">
+    <row r="12" spans="1:3" hidden="1">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1">
+    <row r="13" spans="1:3" hidden="1">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:3">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1">
+    <row r="15" spans="1:3" hidden="1">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:3" hidden="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:3" hidden="1">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:3" hidden="1">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:3" hidden="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:3" hidden="1">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:3" hidden="1">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
+    <row r="25" spans="1:3">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:3" hidden="1">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:3" hidden="1">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:3" hidden="1">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:3" hidden="1">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:3" hidden="1">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" spans="1:3" hidden="1">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" spans="1:3" hidden="1">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="B36" t="s">
+    <row r="36" spans="1:3">
+      <c r="C36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="B39" t="s">
+    <row r="39" spans="1:3">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:3" hidden="1">
+      <c r="A41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1">
-      <c r="A42" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:3" hidden="1">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
-      <c r="A43" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:3" hidden="1">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1">
-      <c r="A44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" spans="1:3" hidden="1">
+      <c r="A44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1">
-      <c r="A45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" spans="1:3" hidden="1">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:3" hidden="1">
+      <c r="A46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1">
-      <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:3" hidden="1">
+      <c r="A47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1">
-      <c r="A48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" spans="1:3" hidden="1">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:3" hidden="1">
+      <c r="A49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
-      <c r="A50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:3" hidden="1">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:3" hidden="1">
+      <c r="A51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
+    <row r="52" spans="1:3">
+      <c r="B52" s="3"/>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:3">
+      <c r="C54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" t="s">
+    <row r="55" spans="1:3">
+      <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" t="s">
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" t="s">
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" t="s">
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="B59" t="s">
+    <row r="60" spans="1:3">
+      <c r="C60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B57">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:C60">
+    <filterColumn colId="0"/>
+    <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>elküldve</t>
+  </si>
+  <si>
+    <t>Playlist megjelenítése a Winampból</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1104,6 +1107,14 @@
     <row r="60" spans="1:3">
       <c r="C60" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/hibak.xlsx
+++ b/trunk/hibak.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="65">
   <si>
     <t>ok gomb hibaüzenetekre</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Playlist megjelenítése a Winampból</t>
+  </si>
+  <si>
+    <t>Verziószám Relesenként növekszik</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1115,6 +1118,14 @@
       </c>
       <c r="C61" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
